--- a/example/population_and_period.xlsx
+++ b/example/population_and_period.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.ssi.govt.nz\userss\sanas001\Documents\Simon's Documents\GDAT tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAA2016-15 Supporting the Social Investment Unit\Preparing the dataset assembly tool for publication\GDAT tool\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161D043-CEDF-482F-B7F5-ECAC53DC6581}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +32,6 @@
     <t>Schema_name</t>
   </si>
   <si>
-    <t>[DL-MAA2016-15]</t>
-  </si>
-  <si>
     <t>Table_name</t>
   </si>
   <si>
@@ -97,12 +93,15 @@
   </si>
   <si>
     <t>example_population_2018_residents.sql</t>
+  </si>
+  <si>
+    <t>[DL-MAA2020-01]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +434,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -444,109 +443,109 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
